--- a/docs/excels/Plano de UAT - Homol v1 (2) - Copia.xlsx
+++ b/docs/excels/Plano de UAT - Homol v1 (2) - Copia.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\bp\docs\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE02E309-33A7-425D-BB19-2B72F05DA77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF86DE-B932-4672-84F5-ADBB1D0D24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Pesquisar Cliente" sheetId="6" r:id="rId1"/>
     <sheet name="Home" sheetId="7" r:id="rId2"/>
     <sheet name="Login" sheetId="8" r:id="rId3"/>
     <sheet name="Cadastro" sheetId="9" r:id="rId4"/>
-    <sheet name="Hub Campanha" sheetId="10" r:id="rId5"/>
-    <sheet name="Campanha" sheetId="11" r:id="rId6"/>
-    <sheet name="Feed" sheetId="12" r:id="rId7"/>
-    <sheet name="Doação recebida" sheetId="13" r:id="rId8"/>
-    <sheet name="Nota Fiscal" sheetId="14" r:id="rId9"/>
-    <sheet name="Perfil" sheetId="15" r:id="rId10"/>
+    <sheet name="Nota Fiscal" sheetId="14" r:id="rId5"/>
+    <sheet name="Perfil" sheetId="15" r:id="rId6"/>
+    <sheet name="Hub Campanha" sheetId="10" r:id="rId7"/>
+    <sheet name="Campanha" sheetId="11" r:id="rId8"/>
+    <sheet name="Feed" sheetId="12" r:id="rId9"/>
+    <sheet name="Doação recebida" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="166">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -258,6 +258,285 @@
   </si>
   <si>
     <t>/05/2021</t>
+  </si>
+  <si>
+    <t>Botão sobre nós</t>
+  </si>
+  <si>
+    <t>Botão entrar</t>
+  </si>
+  <si>
+    <t>Botão cadastrar-se</t>
+  </si>
+  <si>
+    <t>Botão campanhas</t>
+  </si>
+  <si>
+    <t>Gabriel e Roberta</t>
+  </si>
+  <si>
+    <t>entrar na home e clicar em sobre nós</t>
+  </si>
+  <si>
+    <t>redirecionar para a parte sobre nós</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>https://github.com/apires-roberta/bp</t>
+  </si>
+  <si>
+    <t>\\lohttps://github.com/apires-roberta/bp</t>
+  </si>
+  <si>
+    <t>entrar na home e clicar em entrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>redirecionar para página de login</t>
+  </si>
+  <si>
+    <t>redirecionar para página de cadastro</t>
+  </si>
+  <si>
+    <t>entrar na home e clicar em cadastrar-se</t>
+  </si>
+  <si>
+    <t>entrar na home e clicar em campanhas</t>
+  </si>
+  <si>
+    <t>redirecionar para página de campanha de acordo com o usuário está logado, caso não esteja logado redirecionar para a tela de login</t>
+  </si>
+  <si>
+    <t>Startar o react</t>
+  </si>
+  <si>
+    <t>Configurar ambiente:  instalar o react e e as dependências node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodar o SQL: </t>
+  </si>
+  <si>
+    <t>input e-mail</t>
+  </si>
+  <si>
+    <t>entrar na página de Login e preencher o campo</t>
+  </si>
+  <si>
+    <t>validar o e-mail</t>
+  </si>
+  <si>
+    <t>input senha</t>
+  </si>
+  <si>
+    <t>validar senha</t>
+  </si>
+  <si>
+    <t>em andamento</t>
+  </si>
+  <si>
+    <t>validar o Login e redirecionar para a página de campanhas</t>
+  </si>
+  <si>
+    <t>Botão esquecer a senha</t>
+  </si>
+  <si>
+    <t>entrar na página de login e fazer o login</t>
+  </si>
+  <si>
+    <t>entrar na página de login e clicar em esqueci a senha</t>
+  </si>
+  <si>
+    <t>trocar a senha do usuário</t>
+  </si>
+  <si>
+    <t>Botão cadastrar ong</t>
+  </si>
+  <si>
+    <t>Botão cadastrar doador</t>
+  </si>
+  <si>
+    <t>entrar na página de login e clicar em cadastrar ong</t>
+  </si>
+  <si>
+    <t>entrar na página de login e clicar em cadastrar doador</t>
+  </si>
+  <si>
+    <t>redirecionar para a página de cadastro ong</t>
+  </si>
+  <si>
+    <t>redirecionar para a página de cadastro doador</t>
+  </si>
+  <si>
+    <t>entrar na página de cadastro e preencher o campo</t>
+  </si>
+  <si>
+    <t>input e-mail doador</t>
+  </si>
+  <si>
+    <t>input senha doador</t>
+  </si>
+  <si>
+    <t>input telefone doador</t>
+  </si>
+  <si>
+    <t>validar o telefone</t>
+  </si>
+  <si>
+    <t>input CPF doador</t>
+  </si>
+  <si>
+    <t>validar o CPF</t>
+  </si>
+  <si>
+    <t>Botão cadastrar(Página doador)</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>entrar na página de cadastro e clicar em cadastrar</t>
+  </si>
+  <si>
+    <t>cadastrar no banco e redirecionar para campanhas</t>
+  </si>
+  <si>
+    <t>Botão Lua</t>
+  </si>
+  <si>
+    <t>entrar na página de cadastro e clicar na lua</t>
+  </si>
+  <si>
+    <t>mudar para modo escuro</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>input e-mail ong</t>
+  </si>
+  <si>
+    <t>input senha ong</t>
+  </si>
+  <si>
+    <t>input telefone ong</t>
+  </si>
+  <si>
+    <t>input CPF ong</t>
+  </si>
+  <si>
+    <t>Botão cadastrar(Página ong)</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Botão clique aqui</t>
+  </si>
+  <si>
+    <t>entrar na página de cadastro e clicar no clique aqui</t>
+  </si>
+  <si>
+    <t>redirecionar para cadastro ong</t>
+  </si>
+  <si>
+    <t>redirecionar para cadastro doador</t>
+  </si>
+  <si>
+    <t>entrar na página de nota fiscal e clicar no botão campanhas</t>
+  </si>
+  <si>
+    <t>redirecionar para página de campanhas</t>
+  </si>
+  <si>
+    <t>Ícone usuário</t>
+  </si>
+  <si>
+    <t>entrar na página de nota fiscal e clicar na lua</t>
+  </si>
+  <si>
+    <t>entrar na página de nota fiscal e clicar no ícone de usuário</t>
+  </si>
+  <si>
+    <t>redirecionar para o perfil do usuário</t>
+  </si>
+  <si>
+    <t>Ícone de sino</t>
+  </si>
+  <si>
+    <t>entrar na página de nota fiscal e clicar no ícone de sino</t>
+  </si>
+  <si>
+    <t>abrir as notificações</t>
+  </si>
+  <si>
+    <t>Comprovante fiscal</t>
+  </si>
+  <si>
+    <t>entrar na página de nota fiscal</t>
+  </si>
+  <si>
+    <t>retornar o nome da ong para onde o dinheiro foi doado, o valor doado, o que dá para fazer com o valor e os pontos ganhos</t>
+  </si>
+  <si>
+    <t>foto de perfil doador</t>
+  </si>
+  <si>
+    <t>entrar na página de perfil</t>
+  </si>
+  <si>
+    <t>foto de perfil, foto de fundo, Nome, bio, medalhas, quantidade de colaborações, pontuação</t>
+  </si>
+  <si>
+    <t>Botão Sol</t>
+  </si>
+  <si>
+    <t>entrar na página de cadastro e clicar no sol</t>
+  </si>
+  <si>
+    <t>mudar para modo claro</t>
   </si>
 </sst>
 </file>
@@ -267,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -351,6 +630,11 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -519,7 +803,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +900,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -872,7 +1160,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA815FA-5391-4FAB-8D0A-0474DCCB52D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514053EC-00E9-464C-860C-257799AEEE1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +1221,7 @@
         <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2EBA49-DCF0-4851-A151-D0A143D5EABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F603B4-AE12-4285-BF81-FE88C7E7FD35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,60 +1272,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>335504</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99494</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2198974</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1020536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E005596B-334F-4C2F-82BE-DDA162AFD0E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4DEA9F-134B-9A78-C915-382EC004F143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="10144124"/>
-          <a:ext cx="1002254" cy="804345"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11157857" y="3442607"/>
+          <a:ext cx="2158153" cy="1006929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1045,60 +1316,131 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137594</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>46887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F0719B-CFA2-4F04-94D7-19FB5CA82827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16E50AD-9A8E-7115-FAAF-98DBCAD115DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4510794"/>
-          <a:ext cx="1019175" cy="817925"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11117037" y="4735286"/>
+          <a:ext cx="2245178" cy="1244315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2136322</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1355833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1582B060-A4AA-E69A-5618-37387E2EFBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144251" y="6068785"/>
+          <a:ext cx="2109107" cy="1219762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2194313</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA792E7E-5D0C-5737-D05B-2843171F3869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11157858" y="7497535"/>
+          <a:ext cx="2153491" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1111,60 +1453,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>545054</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>13769</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2201906</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1232647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="8" name="Imagem 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC297AF-7970-4386-A820-E3347E6C215E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B3F7B0-D1B7-28D3-6DC6-D2207F0D2DEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="10010774"/>
-          <a:ext cx="3650204" cy="1528245"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11149853" y="3473823"/>
+          <a:ext cx="2179494" cy="1187824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1172,60 +1497,263 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>17930</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:rowOff>6723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156644</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2197424</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1194547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E98F49-75E7-439A-A950-17155096B92A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5469D0-9918-4170-9BB0-821F9E56CBA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4510794"/>
-          <a:ext cx="3667125" cy="5532800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11145371" y="4735605"/>
+          <a:ext cx="2179494" cy="1187824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2220726</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1208635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B00019E-73CF-4984-9210-EF3D7BB79FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11194676" y="5972735"/>
+          <a:ext cx="2153491" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2187549</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1242174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D633BE4-D948-4C01-932F-1476B1C7EBAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11205883" y="9648265"/>
+          <a:ext cx="2109107" cy="1219762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1143001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2218765</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1200049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130BC349-02BA-A54E-08D7-FB0B046DEF25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239499" y="8337177"/>
+          <a:ext cx="2106707" cy="1244872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2205478</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1282515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1BA1DF-7F11-4E2D-90F4-8A4ED8CBF688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11223812" y="10943665"/>
+          <a:ext cx="2109107" cy="1219762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347384</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2084296</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>955980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B569E01-B0E8-16AF-B974-E8454FFBAECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11474825" y="12248029"/>
+          <a:ext cx="1736912" cy="944775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1238,60 +1766,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>545054</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>13769</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2105026</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1144527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="9" name="Imagem 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5506CF53-55A1-4CB9-8307-7E1140C9C933}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BFCC2B-6CE8-9775-FD75-430705E6B68C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="10010774"/>
-          <a:ext cx="3650204" cy="1528245"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11258550" y="3431085"/>
+          <a:ext cx="1971676" cy="1142442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1299,60 +1810,619 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:rowOff>30660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156644</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2085976</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1173102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="10" name="Imagem 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01481CC-F114-4300-B103-3EAECDD83124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01630A3B-A023-4729-B494-E8007984F6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4510794"/>
-          <a:ext cx="3667125" cy="5532800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="4650285"/>
+          <a:ext cx="1971676" cy="1142442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2076451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1154052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1D9D31-D056-4B58-A4CA-309400D63FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11229975" y="5821860"/>
+          <a:ext cx="1971676" cy="1142442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2162176</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1173102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594948C3-5A3E-4A10-9A3F-E019B75BCF4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="7031535"/>
+          <a:ext cx="1971676" cy="1142442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>714753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7594648D-8C4E-3EC5-5E28-7E1328F0EDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="8248651"/>
+          <a:ext cx="1247775" cy="695702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1162229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1539D4-F532-E4AD-8D4E-2275A9602310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="9058276"/>
+          <a:ext cx="1943100" cy="1162228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>323851</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="695702"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F584C06-6891-4AA8-88B6-F0AAE88842BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="16125826"/>
+          <a:ext cx="1247775" cy="695702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1600199" cy="938750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB536B7F-EFD4-45AF-9437-ADF97E3C97F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563351" y="15906751"/>
+          <a:ext cx="1600199" cy="938750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1600199" cy="938750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939DFCFE-30F1-4DFA-8688-F1D85402F16F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11372851" y="11449051"/>
+          <a:ext cx="1600199" cy="938750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1600199" cy="938750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47424BC-D65E-47C2-A50D-DF291410B8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458575" y="12753975"/>
+          <a:ext cx="1600199" cy="938750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1600199" cy="938750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagem 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ED87C6-D4AD-4C08-9579-1325F45B5DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="15078075"/>
+          <a:ext cx="1600199" cy="938750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1600199" cy="938750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagem 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152A17BD-B5CA-472F-AD9B-23E1610A850B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="10429875"/>
+          <a:ext cx="1600199" cy="938750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109091</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1495424" cy="877284"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagem 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446E94FD-53F9-4553-82FF-13DB1D3475E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601450" y="19825841"/>
+          <a:ext cx="1495424" cy="877284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143126</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1192152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E060C4-8B3C-4AF6-965A-9199BB377120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="11451135"/>
+          <a:ext cx="1971676" cy="1142442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1495424" cy="877284"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagem 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E187672E-0EDB-43D3-8673-CD7C93F47BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487150" y="18692366"/>
+          <a:ext cx="1495424" cy="877284"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1323975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2046639</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagem 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91AD41C-D454-4DA0-6E75-77E8A63BF61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11477626" y="21040725"/>
+          <a:ext cx="1694213" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1361,6 +2431,539 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>882690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB82A98-BA2C-105A-72EE-269D7BA25F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="3457575"/>
+          <a:ext cx="1533525" cy="854115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2105025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1072566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77363CD-4AD4-4E21-7E28-A017E08AFC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11258550" y="4476750"/>
+          <a:ext cx="1971675" cy="1034466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1119581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B307C837-3230-009E-409F-3A29AE96935D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439525" y="5657851"/>
+          <a:ext cx="1619250" cy="1100530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>801158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465BA229-61B1-3907-8F22-784AB3496E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468101" y="6819900"/>
+          <a:ext cx="1447799" cy="791633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1271807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AC8462-5F7F-D87E-109B-8CC7CB9681FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="7772400"/>
+          <a:ext cx="1190625" cy="1195607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>963083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41276608-B0DB-4A5D-8A7A-9781C3D55CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11487151" y="9220200"/>
+          <a:ext cx="1447799" cy="791633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1950977</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D3B05C-8380-DDD5-9E77-8DC687E11AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430001" y="3429001"/>
+          <a:ext cx="1646176" cy="1133474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1073190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FEB2BB-FECF-42C1-9FD7-9EDF9E21F451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="3457575"/>
+          <a:ext cx="1533525" cy="854115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1310081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6658F1-293B-4B16-A394-9EC39A38F40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439525" y="5657851"/>
+          <a:ext cx="1619250" cy="1100530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1395806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A2FBD8-CBD2-44DA-B66C-76DA411D4C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11477625" y="7286626"/>
+          <a:ext cx="1619250" cy="1291030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="824322"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D6B436-41F2-498A-A644-4D9FFB1761FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="8810626"/>
+          <a:ext cx="1247775" cy="824322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1809258</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2754E2-C9C3-46DA-8AA6-4EA69E6CEC55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="9791701"/>
+          <a:ext cx="1266333" cy="1009649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1487,7 +3090,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1614,7 +3217,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1696,260 +3299,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE21254-78E3-4D3E-9DCE-D40FCEB64465}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4510794"/>
-          <a:ext cx="3667125" cy="5532800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>545054</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>13769</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514053EC-00E9-464C-860C-257799AEEE1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="10010774"/>
-          <a:ext cx="3650204" cy="1528245"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156644</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F603B4-AE12-4285-BF81-FE88C7E7FD35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4510794"/>
-          <a:ext cx="3667125" cy="5532800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>545054</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>13769</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D607CE11-3952-47C7-8C59-9B8E41C60296}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="10010774"/>
-          <a:ext cx="3650204" cy="1528245"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156644</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Resultado de imagem para tela de cadastro">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE07F02-5C7C-4903-9DA9-8E20C52762DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,10 +3739,10 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2569,7 +3918,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
@@ -2755,811 +4104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863662BF-D3F6-4A4D-9D0B-065753B6BA02}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{371603E4-8B4E-43B7-98D0-7B07DF421B92}"/>
-    <hyperlink ref="J24" r:id="rId2" xr:uid="{8BD281F3-AFF3-487E-A81E-A2D1C3FCE19D}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{D88CED36-0999-4956-971C-2F0C83F14942}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{F9485D4F-ED04-4665-A0BF-3EC44A8AD7CC}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{197A09F5-A90A-4FF9-91FA-A1560E2BFCF5}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{6BBBD088-7869-45CA-B358-DE966D8B7CAC}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{D1824C2A-F0A9-484C-B017-0DCE3BFAE45E}"/>
-    <hyperlink ref="J23" r:id="rId8" xr:uid="{F3B9BA09-394F-4332-8AAB-E1837FBEA2A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9539F564-2B60-4B77-8FBF-E62BD65F5BCF}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{D6F9952A-DA05-4EC5-9EF6-643242696547}"/>
-    <hyperlink ref="J24" r:id="rId2" xr:uid="{C18A9F6B-0121-4356-813A-A26BABFF4EE7}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{DBBFA051-3FAD-4DAF-AD04-8E16E4B756B5}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{821B0272-36F2-4936-8650-0B5ECD68FDB3}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{ABD5329F-DA48-4828-913B-65814C7E927A}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{AA53166E-570F-4A75-B76A-5A822898BFC6}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{5771CADE-FF2D-45D9-B6F8-51D021E133AE}"/>
-    <hyperlink ref="J23" r:id="rId8" xr:uid="{C1B5A4AD-3765-479B-A95B-1E299DB5CBC9}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9E3869-0BE5-447E-B254-8193550C9A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AD4323-8BF5-4E9D-B5D3-DDBB0863DF81}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,10 +4172,10 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3946,26 +4491,26 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{63A97F7D-2F99-4D61-9806-753ADEB013E3}"/>
-    <hyperlink ref="J24" r:id="rId2" xr:uid="{E78D53C1-39A5-49AF-99D2-FA8BC7F592A6}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{49835155-FC43-4EDA-B85B-B1FAE35215FF}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{0E26ECCA-A947-4AE3-8632-8A2CD3E2C82C}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{5CA18352-6F41-422A-BCBF-DF0A97BE1E4B}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{DC9DFD15-228A-48B7-9C31-01DED106903E}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{D9210BAA-A06E-4DE3-8F0E-425E289EE981}"/>
-    <hyperlink ref="J23" r:id="rId8" xr:uid="{26FA4507-B068-469E-AA09-6F14CB666A35}"/>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{E49EAA90-29BA-4F10-875E-355B47543DC1}"/>
+    <hyperlink ref="J24" r:id="rId2" xr:uid="{6DF89F38-F491-42AD-BC3C-D6A246A83269}"/>
+    <hyperlink ref="I24" r:id="rId3" xr:uid="{38A74D14-C6A7-416E-A43C-591040201B1F}"/>
+    <hyperlink ref="J20" r:id="rId4" xr:uid="{4058FC1D-9264-43E2-A99C-6F2C7BA0F129}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{FC3F2FA1-941F-47D4-B186-B4F3C01871B9}"/>
+    <hyperlink ref="J21" r:id="rId6" xr:uid="{0A89D143-D0A1-4451-B237-D2C40AAE5A4C}"/>
+    <hyperlink ref="J22" r:id="rId7" xr:uid="{6CB3C586-8F45-48D8-8953-8BFC943733E7}"/>
+    <hyperlink ref="J23" r:id="rId8" xr:uid="{2255277A-7165-445A-93A6-9BE4ADEB38C0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED3DFE8-2589-4A06-817D-C2BB21E5E657}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9539F564-2B60-4B77-8FBF-E62BD65F5BCF}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3975,7 +4520,7 @@
     <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
     <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
@@ -4009,8 +4554,8 @@
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
+      <c r="B4" s="7">
+        <v>44708</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4029,10 +4574,10 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4040,22 +4585,17 @@
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4102,51 +4642,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
+    <row r="18" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>2</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
@@ -4159,24 +4697,22 @@
         <v>49</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>3</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
@@ -4189,128 +4725,72 @@
         <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>4</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
@@ -4329,7 +4809,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -4337,7 +4817,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="22">
-        <v>44340</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -4348,21 +4828,1916 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{D5CC1FD4-8528-43CF-B839-8BDDCAC2CCE9}"/>
-    <hyperlink ref="J24" r:id="rId2" xr:uid="{71736867-A70A-4823-BAA5-E2F3E6AEAD9A}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{C21C97F7-03EA-4E8D-9063-619226B3C69D}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{AA7A8350-2DEC-43B9-979F-C41EA6A41B05}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{C18E111A-7B6A-4E55-B65A-A6585C5B1946}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{3A55C76A-63BF-47A2-B283-72D6ABFFFC43}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{4569D46D-B47C-4039-951C-D5F9FBE3DED4}"/>
-    <hyperlink ref="J23" r:id="rId8" xr:uid="{B436458C-1691-4ED3-BAF6-671F6A752455}"/>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{D6F9952A-DA05-4EC5-9EF6-643242696547}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{821B0272-36F2-4936-8650-0B5ECD68FDB3}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{ABD5329F-DA48-4828-913B-65814C7E927A}"/>
+    <hyperlink ref="J21" r:id="rId4" xr:uid="{AA53166E-570F-4A75-B76A-5A822898BFC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9E3869-0BE5-447E-B254-8193550C9A4F}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="22">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{7E487065-1209-47B1-84D5-C21C074C71B8}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{236D909C-CE24-473E-BB05-E3BDB1AACC9B}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{217F819C-75B4-4F43-A245-81A1F5F8362E}"/>
+    <hyperlink ref="J21" r:id="rId4" xr:uid="{2E9455C9-33B8-4050-B175-F9539AC91BA8}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{9C07BB41-32CE-4880-96FB-B70454DC9347}"/>
+    <hyperlink ref="J23" r:id="rId6" xr:uid="{2CA301F5-0041-456B-8E71-6EE9DAA7A715}"/>
+    <hyperlink ref="J24" r:id="rId7" xr:uid="{F9676246-04A6-4F5A-A6DB-D68F30B7A9CF}"/>
+    <hyperlink ref="J25" r:id="rId8" xr:uid="{95685D88-D2ED-4F77-88C8-45020839CE14}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED3DFE8-2589-4A06-817D-C2BB21E5E657}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="22">
+        <v>44708</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{A9A27EB7-A230-4144-BDD1-069FCBD77E45}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{61144C26-A11D-4831-8FBF-9F4748D99522}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{E9999157-9E81-4550-82EE-9FB5606EC49E}"/>
+    <hyperlink ref="J21" r:id="rId4" xr:uid="{2D33177F-EBCA-43CC-ACD9-BAA2A5988D05}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{33BEBD82-D041-4C58-A143-BEBF002AF874}"/>
+    <hyperlink ref="J23" r:id="rId6" xr:uid="{01C89727-9E20-435F-924A-25CA0E02B5F1}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{7C6BF874-6251-42AD-9748-26B36C5FE81F}"/>
+    <hyperlink ref="J28" r:id="rId8" xr:uid="{66D3C138-654E-4481-97DB-37BF38DBE8C4}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{A879AD3D-4B1C-458A-B796-310228B9EAA2}"/>
+    <hyperlink ref="J29" r:id="rId10" xr:uid="{F64565FC-CDFD-4DF6-BCDE-0AAFFAE469AB}"/>
+    <hyperlink ref="J30" r:id="rId11" xr:uid="{94C48D58-AC4C-4349-A9E9-E78345653927}"/>
+    <hyperlink ref="J24" r:id="rId12" xr:uid="{BA54594D-B109-471E-A309-6A95FA26310E}"/>
+    <hyperlink ref="J31" r:id="rId13" xr:uid="{212DF77F-0F9B-4FBD-B943-760BFB3659E2}"/>
+    <hyperlink ref="J32" r:id="rId14" xr:uid="{2D259635-448C-406B-991F-C0702F343D0E}"/>
+    <hyperlink ref="J25" r:id="rId15" xr:uid="{AA80212E-D07A-4E2C-8A33-83EA450667A5}"/>
+    <hyperlink ref="J33" r:id="rId16" xr:uid="{4922AF2E-C5D0-4494-8E1C-B28ECE42BF11}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId17"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CC49C-2AEB-43C1-B7A4-C9EF6D359EAC}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="22">
+        <v>44708</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{DEC084CE-3D42-4BC4-BD16-6CCD687CADCD}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{7B37211C-8BEC-483D-9CA8-D38B7687A19C}"/>
+    <hyperlink ref="J21" r:id="rId3" xr:uid="{21702F80-5221-4A5A-B2FD-8CFED98A2D43}"/>
+    <hyperlink ref="J22" r:id="rId4" xr:uid="{CB80F1CB-031A-48F2-8CFD-D114C92699CD}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{F8FB8C37-9684-487E-BE34-CB632621B036}"/>
+    <hyperlink ref="J23" r:id="rId6" xr:uid="{4AF791CB-294C-42A2-AE4A-CDEA7E1DAB26}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863662BF-D3F6-4A4D-9D0B-065753B6BA02}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{D2493628-89CC-45E2-AD37-CB41F020730E}"/>
+    <hyperlink ref="J23" r:id="rId2" xr:uid="{38634C0A-1F87-4F50-A1DB-CB04810BCC8F}"/>
+    <hyperlink ref="J25" r:id="rId3" xr:uid="{E7F8B19B-6EDF-433F-8276-4699957B48DB}"/>
+    <hyperlink ref="J27" r:id="rId4" xr:uid="{2C641567-94D9-4447-BDDD-996A9997FEEA}"/>
+    <hyperlink ref="J26" r:id="rId5" xr:uid="{B9DCA717-4C63-407D-8CF9-AA41BB08B913}"/>
+    <hyperlink ref="J28" r:id="rId6" xr:uid="{CC826916-5EDF-4C39-9A45-8631AEA80E2F}"/>
+    <hyperlink ref="J29" r:id="rId7" xr:uid="{05432022-15D5-4C36-AAF3-57959410A2AE}"/>
+    <hyperlink ref="J24" r:id="rId8" xr:uid="{E7BAAF09-D50A-42B3-9D15-0B6F2CB4A11D}"/>
+    <hyperlink ref="J30" r:id="rId9" xr:uid="{775A8A5A-96E5-4EC3-B26A-9A694464FAB7}"/>
+    <hyperlink ref="J19" r:id="rId10" xr:uid="{F63851FD-F2E5-446F-BB11-CD2EA51CF816}"/>
+    <hyperlink ref="J20" r:id="rId11" xr:uid="{CAE8C889-67C0-4291-A079-D3E1656A58AA}"/>
+    <hyperlink ref="J21" r:id="rId12" xr:uid="{4FBA7C54-F54E-4E12-8111-0CED2C615B5C}"/>
+    <hyperlink ref="J22" r:id="rId13" xr:uid="{9EE2A48A-E465-49ED-A675-034DD823D688}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7DBF26-F2EE-47EB-B232-12D41ACD9C9F}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -4431,10 +6806,10 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4764,7 +7139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C40AC6-ECE2-48B5-9BB5-A05542D91609}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -4833,10 +7208,10 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -5166,7 +7541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE769B1-1FCB-49DD-986B-BC87E8FF6A0E}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -5235,10 +7610,10 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -5566,808 +7941,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AD4323-8BF5-4E9D-B5D3-DDBB0863DF81}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{E49EAA90-29BA-4F10-875E-355B47543DC1}"/>
-    <hyperlink ref="J24" r:id="rId2" xr:uid="{6DF89F38-F491-42AD-BC3C-D6A246A83269}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{38A74D14-C6A7-416E-A43C-591040201B1F}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{4058FC1D-9264-43E2-A99C-6F2C7BA0F129}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{FC3F2FA1-941F-47D4-B186-B4F3C01871B9}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{0A89D143-D0A1-4451-B237-D2C40AAE5A4C}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{6CB3C586-8F45-48D8-8953-8BFC943733E7}"/>
-    <hyperlink ref="J23" r:id="rId8" xr:uid="{2255277A-7165-445A-93A6-9BE4ADEB38C0}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CC49C-2AEB-43C1-B7A4-C9EF6D359EAC}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{BCE03F62-C7B9-44BD-AD73-F3BD18EA886C}"/>
-    <hyperlink ref="J24" r:id="rId2" xr:uid="{A0BF7607-979F-46E8-9799-AE170A652233}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{828D84A0-36B7-4431-A353-6C8D9976735F}"/>
-    <hyperlink ref="J20" r:id="rId4" xr:uid="{F4737C78-BBB5-4884-8699-21F6BADD4A42}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{355095E8-717C-439A-A087-CA8B9AA7CD2A}"/>
-    <hyperlink ref="J21" r:id="rId6" xr:uid="{7BA8317F-5E45-4618-A02A-673BC3B237BC}"/>
-    <hyperlink ref="J22" r:id="rId7" xr:uid="{E66A8286-EB34-46C0-B47E-0A39828F883A}"/>
-    <hyperlink ref="J23" r:id="rId8" xr:uid="{868647F6-58ED-411E-8B79-A0DEF73E6EC4}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId9"/>
-</worksheet>
 </file>